--- a/dataset/profiles/device-list.xlsx
+++ b/dataset/profiles/device-list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BLEGuard\BLEGuard-supplement\dataset\profiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lancecai/Documents/GitHub/BLEGuard-supplement/dataset/profiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{213D0FF1-4D87-4915-84C7-CD9D374A0AF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA9470F0-04BB-AC49-BC29-53E5B9453947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BLE-Device" sheetId="1" r:id="rId1"/>
@@ -282,7 +282,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -636,18 +636,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="33.88671875" customWidth="1"/>
-    <col min="3" max="3" width="21.109375" customWidth="1"/>
-    <col min="4" max="4" width="88.88671875" customWidth="1"/>
+    <col min="2" max="2" width="33.83203125" customWidth="1"/>
+    <col min="3" max="3" width="21.1640625" customWidth="1"/>
+    <col min="4" max="4" width="88.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="16">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -661,7 +661,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="16">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -675,7 +675,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="16">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -689,7 +689,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="16">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -703,7 +703,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="16">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -717,7 +717,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="16">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -731,7 +731,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="32">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -745,7 +745,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="16">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -759,7 +759,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="32">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -773,7 +773,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="48">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -787,7 +787,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="32">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -801,7 +801,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="32">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -815,7 +815,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="32">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -829,7 +829,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="16">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -843,7 +843,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="16">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -857,7 +857,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="16">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -871,7 +871,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="16">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -914,21 +914,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA76FD81-4110-4E1A-98F3-C0669D9FF1AC}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView zoomScale="138" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.33203125" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.33203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.33203125" style="1"/>
-    <col min="3" max="3" width="35.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="35.83203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="20.33203125" style="1"/>
     <col min="5" max="5" width="49" style="1" customWidth="1"/>
     <col min="6" max="16384" width="20.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="16">
       <c r="A1" s="2" t="s">
         <v>44</v>
       </c>
@@ -945,7 +945,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="64">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -962,7 +962,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="64">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -979,7 +979,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="32">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -996,7 +996,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="16">
       <c r="A5" s="2">
         <v>4</v>
       </c>
